--- a/6502_OpcodeMatrix.xlsx
+++ b/6502_OpcodeMatrix.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Sultan\Abacus\data\C64\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Sultan\Abacus\dev\scripts\k6502\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B7B967E6-8B04-4DB8-8D5E-254FF1137E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205B7859-594E-4F4B-A924-F7AA7CFC403C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16410" yWindow="720" windowWidth="12380" windowHeight="18860" xr2:uid="{A5E2A2B9-77CB-469B-8A6A-2146D12C11D1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{A5E2A2B9-77CB-469B-8A6A-2146D12C11D1}"/>
   </bookViews>
   <sheets>
     <sheet name="6502_OpcodeMatrix" sheetId="1" r:id="rId1"/>
+    <sheet name="Legend" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="324">
   <si>
     <t>6502 OPCODE MATRIX</t>
   </si>
@@ -726,9 +727,6 @@
     <t>PAGE-X</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
     <t>Add with Carry</t>
   </si>
   <si>
@@ -922,13 +920,100 @@
   </si>
   <si>
     <t>Break and Force Interrupt</t>
+  </si>
+  <si>
+    <t>Karim Sultan, Feb 2022, distilled from various sources. See page 2 for notes.</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>The assembler mnemonic for this instruction</t>
+  </si>
+  <si>
+    <t>The control byte (machine language) for Opcode</t>
+  </si>
+  <si>
+    <t>The addressing mode (See below)</t>
+  </si>
+  <si>
+    <t>The number of bytes of ML for this instruction</t>
+  </si>
+  <si>
+    <t>The number of clocks for cpu processing of instruction</t>
+  </si>
+  <si>
+    <t>If page boundary crossed, add this many extra cycles</t>
+  </si>
+  <si>
+    <t>If stays on same page for action, add this many extra cycles</t>
+  </si>
+  <si>
+    <t>Affected flags by instruction (Negative, Zero, Carry, Interrupt,  Division by zero, oVerflow)</t>
+  </si>
+  <si>
+    <t>The meaning of this operation</t>
+  </si>
+  <si>
+    <t>Addressing</t>
+  </si>
+  <si>
+    <t>Meaning + Example</t>
+  </si>
+  <si>
+    <t>Absolute: STA $0400</t>
+  </si>
+  <si>
+    <t>Immediate: LDA #$FF</t>
+  </si>
+  <si>
+    <t>Accumulator: ROL A</t>
+  </si>
+  <si>
+    <t>Implied: INX</t>
+  </si>
+  <si>
+    <t>Indirect: JMP ($LOHI)</t>
+  </si>
+  <si>
+    <t>Absolute, X-indexed: STA $0400,X</t>
+  </si>
+  <si>
+    <t>Absolute, Y-indexed: STA $0400,Y</t>
+  </si>
+  <si>
+    <t>Indirect, X-indexed: AND ($LOHI, X)</t>
+  </si>
+  <si>
+    <t>Indirect, Y-indexed: AND ($LOHI), Y</t>
+  </si>
+  <si>
+    <t>Relative: BCC $0A</t>
+  </si>
+  <si>
+    <t>Zero-Page: STA $90</t>
+  </si>
+  <si>
+    <t>Zero-Page, X-indexed: STA $90, X</t>
+  </si>
+  <si>
+    <t>Zero-Page, Y-indexed: STA $90, Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: https://www.masswerk.at/6502/6502_instruction_set.html </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -945,6 +1030,12 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
@@ -982,7 +1073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1039,6 +1130,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1054,6 +1147,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>292628</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD80936-0241-437D-9624-75909AE518AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="6813550"/>
+          <a:ext cx="10268478" cy="2597283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368832</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>178014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BF1E55-C41F-4468-AFE0-CDB43D7D4D37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="10102850"/>
+          <a:ext cx="10344682" cy="4172164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1353,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C88A6A-9F9D-46EF-8A5C-27EE186E6906}">
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -1379,180 +1565,161 @@
       </c>
       <c r="I1" s="16"/>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7" t="s">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>7</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>295</v>
+      <c r="I4" s="16" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2</v>
-      </c>
-      <c r="E5" s="9">
-        <v>6</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
-        <v>255</v>
+        <v>27</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="9">
         <v>2</v>
       </c>
       <c r="E6" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="10">
-        <v>2</v>
-      </c>
-      <c r="E7" s="10">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11" t="s">
-        <v>227</v>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>3</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="21" t="s">
-        <v>228</v>
+        <v>29</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11" t="s">
+        <v>227</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
-        <v>255</v>
+      <c r="H9" s="21" t="s">
+        <v>228</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>270</v>
@@ -1560,246 +1727,244 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
-        <v>227</v>
+        <v>30</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="9">
-        <v>3</v>
-      </c>
-      <c r="E11" s="9">
-        <v>4</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>255</v>
+        <v>31</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11" t="s">
+        <v>227</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="10">
-        <v>3</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12" s="9">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9">
+        <v>4</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3</v>
+      </c>
+      <c r="E13" s="10">
         <v>6</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="12" t="s">
+      <c r="I13" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="13">
-        <v>2</v>
-      </c>
-      <c r="F13" s="13">
-        <v>2</v>
-      </c>
-      <c r="G13" s="13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="D14" s="13">
+        <v>2</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2</v>
+      </c>
+      <c r="F14" s="13">
+        <v>2</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="I13" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="9">
-        <v>2</v>
-      </c>
-      <c r="E14" s="9">
-        <v>5</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>270</v>
+      <c r="I14" s="18" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="9">
         <v>2</v>
       </c>
       <c r="E15" s="9">
-        <v>4</v>
-      </c>
-      <c r="F15" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="10">
-        <v>2</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D16" s="9">
+        <v>2</v>
+      </c>
+      <c r="E16" s="9">
+        <v>4</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10">
         <v>6</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="I16" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="12" t="s">
+      <c r="I17" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="13">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13">
-        <v>2</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="I17" s="18" t="s">
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="9">
-        <v>3</v>
-      </c>
-      <c r="E18" s="9">
-        <v>4</v>
-      </c>
-      <c r="F18" s="9">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>270</v>
+      <c r="I18" s="18" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="9">
         <v>3</v>
@@ -1812,479 +1977,479 @@
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="10">
-        <v>3</v>
-      </c>
-      <c r="E20" s="10">
-        <v>7</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11" t="s">
-        <v>227</v>
+      <c r="D20" s="9">
+        <v>3</v>
+      </c>
+      <c r="E20" s="9">
+        <v>4</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3</v>
+      </c>
+      <c r="E21" s="10">
+        <v>7</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="9">
-        <v>3</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="D22" s="9">
+        <v>3</v>
+      </c>
+      <c r="E22" s="9">
         <v>6</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="21" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="12" t="s">
+      <c r="I22" s="17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="13">
-        <v>2</v>
-      </c>
-      <c r="E22" s="13">
+      <c r="D23" s="13">
+        <v>2</v>
+      </c>
+      <c r="E23" s="13">
         <v>6</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="12" t="s">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="I22" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="11" t="s">
+      <c r="I23" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="10">
-        <v>2</v>
-      </c>
-      <c r="E23" s="10">
-        <v>3</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="13">
-        <v>2</v>
-      </c>
-      <c r="E24" s="13">
-        <v>3</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>232</v>
+      <c r="D24" s="10">
+        <v>2</v>
+      </c>
+      <c r="E24" s="10">
+        <v>3</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="15">
-        <v>2</v>
-      </c>
-      <c r="E25" s="15">
+      <c r="D25" s="13">
+        <v>2</v>
+      </c>
+      <c r="E25" s="13">
+        <v>3</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="15">
+        <v>2</v>
+      </c>
+      <c r="E26" s="15">
         <v>5</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15" t="s">
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="I25" s="18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="11" t="s">
+      <c r="I26" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9">
         <v>4</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="13">
-        <v>2</v>
-      </c>
-      <c r="E27" s="13">
-        <v>2</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>232</v>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2</v>
+      </c>
+      <c r="E28" s="13">
+        <v>2</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B29" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="15">
-        <v>1</v>
-      </c>
-      <c r="E28" s="15">
-        <v>2</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15" t="s">
+      <c r="D29" s="15">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15">
+        <v>2</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="I28" s="18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="11" t="s">
+      <c r="I29" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="10">
-        <v>3</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="D30" s="10">
+        <v>3</v>
+      </c>
+      <c r="E30" s="10">
         <v>4</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="13">
-        <v>3</v>
-      </c>
-      <c r="E30" s="13">
-        <v>4</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>232</v>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="15">
-        <v>3</v>
-      </c>
-      <c r="E31" s="15">
-        <v>6</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15" t="s">
-        <v>227</v>
+      <c r="D31" s="13">
+        <v>3</v>
+      </c>
+      <c r="E31" s="13">
+        <v>4</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="13">
-        <v>2</v>
-      </c>
-      <c r="E32" s="13">
-        <v>2</v>
-      </c>
-      <c r="F32" s="13">
-        <v>2</v>
-      </c>
-      <c r="G32" s="13">
-        <v>1</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>228</v>
+        <v>32</v>
+      </c>
+      <c r="D32" s="15">
+        <v>3</v>
+      </c>
+      <c r="E32" s="15">
+        <v>6</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15" t="s">
+        <v>227</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D33" s="13">
         <v>2</v>
       </c>
       <c r="E33" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F33" s="13">
-        <v>1</v>
-      </c>
-      <c r="G33" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="G33" s="13">
+        <v>1</v>
+      </c>
       <c r="H33" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="13">
         <v>2</v>
       </c>
       <c r="E34" s="13">
-        <v>4</v>
-      </c>
-      <c r="F34" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
       <c r="G34" s="13"/>
       <c r="H34" s="12" t="s">
         <v>226</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="15">
-        <v>2</v>
-      </c>
-      <c r="E35" s="15">
+      <c r="D35" s="13">
+        <v>2</v>
+      </c>
+      <c r="E35" s="13">
+        <v>4</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="15">
+        <v>2</v>
+      </c>
+      <c r="E36" s="15">
         <v>6</v>
       </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15" t="s">
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="I35" s="18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="11" t="s">
+      <c r="I36" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B37" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="9">
-        <v>1</v>
-      </c>
-      <c r="E36" s="9">
-        <v>2</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="13">
-        <v>3</v>
-      </c>
-      <c r="E37" s="13">
-        <v>4</v>
-      </c>
-      <c r="F37" s="13">
-        <v>1</v>
-      </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>232</v>
+      <c r="D37" s="9">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9">
+        <v>2</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D38" s="13">
         <v>3</v>
@@ -2300,71 +2465,73 @@
         <v>226</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="15">
-        <v>3</v>
-      </c>
-      <c r="E39" s="15">
-        <v>7</v>
-      </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15" t="s">
-        <v>227</v>
+      <c r="D39" s="13">
+        <v>3</v>
+      </c>
+      <c r="E39" s="13">
+        <v>4</v>
+      </c>
+      <c r="F39" s="13">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="12" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D40" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="12" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="15">
         <v>6</v>
@@ -2372,168 +2539,168 @@
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="15">
         <v>2</v>
       </c>
       <c r="E42" s="15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="15">
+        <v>2</v>
+      </c>
+      <c r="E43" s="15">
+        <v>3</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B44" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="9">
-        <v>2</v>
-      </c>
-      <c r="E43" s="9">
+      <c r="D44" s="9">
+        <v>2</v>
+      </c>
+      <c r="E44" s="9">
         <v>5</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9" t="s">
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="I43" s="17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="15">
-        <v>1</v>
-      </c>
-      <c r="E44" s="15">
-        <v>3</v>
-      </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>272</v>
+      <c r="I44" s="17" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D45" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
-      <c r="H45" s="15" t="s">
-        <v>255</v>
+      <c r="H45" s="20" t="s">
+        <v>228</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="15">
+        <v>2</v>
+      </c>
+      <c r="E46" s="15">
+        <v>2</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B47" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="9">
-        <v>1</v>
-      </c>
-      <c r="E46" s="9">
-        <v>2</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9" t="s">
+      <c r="D47" s="9">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9">
+        <v>2</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="I46" s="17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="15">
-        <v>3</v>
-      </c>
-      <c r="E47" s="15">
-        <v>3</v>
-      </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>263</v>
+      <c r="I47" s="17" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>32</v>
@@ -2542,209 +2709,207 @@
         <v>3</v>
       </c>
       <c r="E48" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="15" t="s">
-        <v>255</v>
+      <c r="H48" s="20" t="s">
+        <v>228</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="15">
+        <v>3</v>
+      </c>
+      <c r="E49" s="15">
+        <v>4</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B50" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="9">
-        <v>3</v>
-      </c>
-      <c r="E49" s="9">
+      <c r="D50" s="9">
+        <v>3</v>
+      </c>
+      <c r="E50" s="9">
         <v>6</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9" t="s">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="I49" s="17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="13">
-        <v>2</v>
-      </c>
-      <c r="E50" s="13">
-        <v>2</v>
-      </c>
-      <c r="F50" s="13">
-        <v>2</v>
-      </c>
-      <c r="G50" s="13">
-        <v>1</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>244</v>
+      <c r="I50" s="17" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="14" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D51" s="13">
         <v>2</v>
       </c>
       <c r="E51" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F51" s="13">
-        <v>1</v>
-      </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="15" t="s">
-        <v>255</v>
+        <v>2</v>
+      </c>
+      <c r="G51" s="13">
+        <v>1</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C52" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="13">
+        <v>2</v>
+      </c>
+      <c r="E52" s="13">
+        <v>5</v>
+      </c>
+      <c r="F52" s="13">
+        <v>1</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="15">
-        <v>2</v>
-      </c>
-      <c r="E52" s="15">
+      <c r="D53" s="15">
+        <v>2</v>
+      </c>
+      <c r="E53" s="15">
         <v>4</v>
       </c>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="8" t="s">
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B54" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="9">
-        <v>2</v>
-      </c>
-      <c r="E53" s="9">
+      <c r="D54" s="9">
+        <v>2</v>
+      </c>
+      <c r="E54" s="9">
         <v>6</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9" t="s">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="I53" s="17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="13">
-        <v>1</v>
-      </c>
-      <c r="E54" s="13">
-        <v>2</v>
-      </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>293</v>
+      <c r="I54" s="17" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="15">
-        <v>3</v>
-      </c>
-      <c r="E55" s="15">
-        <v>4</v>
-      </c>
-      <c r="F55" s="15">
-        <v>1</v>
-      </c>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15" t="s">
-        <v>255</v>
+        <v>27</v>
+      </c>
+      <c r="D55" s="13">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13">
+        <v>2</v>
+      </c>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D56" s="15">
         <v>3</v>
@@ -2757,102 +2922,104 @@
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="9" t="s">
+      <c r="A57" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="9">
-        <v>3</v>
-      </c>
-      <c r="E57" s="9">
-        <v>7</v>
-      </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>268</v>
+      <c r="D57" s="15">
+        <v>3</v>
+      </c>
+      <c r="E57" s="15">
+        <v>4</v>
+      </c>
+      <c r="F57" s="15">
+        <v>1</v>
+      </c>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="8" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D58" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="21" t="s">
-        <v>228</v>
+      <c r="H58" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="8" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="10">
-        <v>2</v>
-      </c>
-      <c r="E59" s="10">
+        <v>27</v>
+      </c>
+      <c r="D59" s="9">
+        <v>1</v>
+      </c>
+      <c r="E59" s="9">
         <v>6</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="11" t="s">
-        <v>225</v>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="21" t="s">
+        <v>228</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>171</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" s="10">
         <v>2</v>
       </c>
       <c r="E60" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
@@ -2860,253 +3027,253 @@
         <v>225</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="9">
-        <v>2</v>
-      </c>
-      <c r="E61" s="9">
+      <c r="D61" s="10">
+        <v>2</v>
+      </c>
+      <c r="E61" s="10">
+        <v>3</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="9">
+        <v>2</v>
+      </c>
+      <c r="E62" s="9">
         <v>5</v>
       </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9" t="s">
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="I61" s="17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="14" t="s">
+      <c r="I62" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B63" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="15">
-        <v>1</v>
-      </c>
-      <c r="E62" s="15">
+      <c r="D63" s="15">
+        <v>1</v>
+      </c>
+      <c r="E63" s="15">
         <v>4</v>
       </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="I62" s="18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="10">
-        <v>2</v>
-      </c>
-      <c r="E63" s="10">
-        <v>2</v>
-      </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="I63" s="17" t="s">
-        <v>231</v>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="10">
+        <v>2</v>
+      </c>
+      <c r="E64" s="10">
+        <v>2</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B65" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C65" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="9">
-        <v>1</v>
-      </c>
-      <c r="E64" s="9">
-        <v>2</v>
-      </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9" t="s">
+      <c r="D65" s="9">
+        <v>1</v>
+      </c>
+      <c r="E65" s="9">
+        <v>2</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="I64" s="17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="14" t="s">
+      <c r="I65" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B66" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C66" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D65" s="15">
-        <v>3</v>
-      </c>
-      <c r="E65" s="15">
+      <c r="D66" s="15">
+        <v>3</v>
+      </c>
+      <c r="E66" s="15">
         <v>5</v>
       </c>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="20" t="s">
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="I65" s="18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="10">
-        <v>3</v>
-      </c>
-      <c r="E66" s="10">
-        <v>4</v>
-      </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="I66" s="17" t="s">
-        <v>231</v>
+      <c r="I66" s="18" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="9">
-        <v>3</v>
-      </c>
-      <c r="E67" s="9">
-        <v>6</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9" t="s">
-        <v>227</v>
+      <c r="D67" s="10">
+        <v>3</v>
+      </c>
+      <c r="E67" s="10">
+        <v>4</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="8" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" s="10">
-        <v>2</v>
-      </c>
-      <c r="E68" s="10">
-        <v>2</v>
-      </c>
-      <c r="F68" s="10">
-        <v>2</v>
-      </c>
-      <c r="G68" s="10">
-        <v>1</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>228</v>
+        <v>32</v>
+      </c>
+      <c r="D68" s="9">
+        <v>3</v>
+      </c>
+      <c r="E68" s="9">
+        <v>6</v>
+      </c>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="8" t="s">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D69" s="10">
         <v>2</v>
       </c>
       <c r="E69" s="10">
-        <v>5</v>
-      </c>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="F69" s="10">
+        <v>2</v>
+      </c>
+      <c r="G69" s="10">
+        <v>1</v>
+      </c>
       <c r="H69" s="11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>171</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D70" s="10">
         <v>2</v>
       </c>
       <c r="E70" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
@@ -3114,93 +3281,93 @@
         <v>225</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D71" s="9">
-        <v>2</v>
-      </c>
-      <c r="E71" s="9">
-        <v>6</v>
-      </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9" t="s">
-        <v>227</v>
+      <c r="D71" s="10">
+        <v>2</v>
+      </c>
+      <c r="E71" s="10">
+        <v>4</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D72" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="21" t="s">
-        <v>243</v>
+      <c r="H72" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73" s="10">
-        <v>3</v>
-      </c>
-      <c r="E73" s="10">
-        <v>4</v>
-      </c>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="11" t="s">
-        <v>225</v>
+        <v>27</v>
+      </c>
+      <c r="D73" s="9">
+        <v>1</v>
+      </c>
+      <c r="E73" s="9">
+        <v>2</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="21" t="s">
+        <v>242</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>171</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D74" s="10">
         <v>3</v>
@@ -3214,74 +3381,74 @@
         <v>225</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D75" s="9">
-        <v>3</v>
-      </c>
-      <c r="E75" s="9">
+      <c r="D75" s="10">
+        <v>3</v>
+      </c>
+      <c r="E75" s="10">
+        <v>4</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="I75" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="9">
+        <v>3</v>
+      </c>
+      <c r="E76" s="9">
         <v>7</v>
       </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9" t="s">
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="I75" s="17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D76" s="15">
-        <v>2</v>
-      </c>
-      <c r="E76" s="15">
-        <v>6</v>
-      </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="I76" s="18" t="s">
-        <v>284</v>
+      <c r="I76" s="17" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77" s="15">
         <v>2</v>
       </c>
       <c r="E77" s="15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
@@ -3289,15 +3456,15 @@
         <v>228</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>29</v>
@@ -3314,115 +3481,115 @@
         <v>228</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C79" s="9" t="s">
+      <c r="A79" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D79" s="9">
-        <v>2</v>
-      </c>
-      <c r="E79" s="9">
-        <v>3</v>
-      </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="21" t="s">
+      <c r="D79" s="15">
+        <v>2</v>
+      </c>
+      <c r="E79" s="15">
+        <v>3</v>
+      </c>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="I79" s="17" t="s">
-        <v>285</v>
+      <c r="I79" s="18" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D80" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
-      <c r="H80" s="9" t="s">
-        <v>255</v>
+      <c r="H80" s="21" t="s">
+        <v>228</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C81" s="15" t="s">
+      <c r="A81" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="15">
-        <v>1</v>
-      </c>
-      <c r="E81" s="15">
-        <v>2</v>
-      </c>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="I81" s="18" t="s">
-        <v>290</v>
+      <c r="D81" s="9">
+        <v>1</v>
+      </c>
+      <c r="E81" s="9">
+        <v>2</v>
+      </c>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D82" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E82" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="20" t="s">
-        <v>228</v>
+      <c r="H82" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>32</v>
@@ -3439,99 +3606,99 @@
         <v>228</v>
       </c>
       <c r="I83" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A84" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" s="15">
+        <v>3</v>
+      </c>
+      <c r="E84" s="15">
+        <v>4</v>
+      </c>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="I84" s="18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" s="9">
+        <v>3</v>
+      </c>
+      <c r="E85" s="9">
+        <v>4</v>
+      </c>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="I85" s="17" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D84" s="9">
-        <v>3</v>
-      </c>
-      <c r="E84" s="9">
-        <v>4</v>
-      </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="I84" s="17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" s="13">
-        <v>2</v>
-      </c>
-      <c r="E85" s="13">
-        <v>2</v>
-      </c>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="I85" s="18" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="14" t="s">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D86" s="15">
-        <v>2</v>
-      </c>
-      <c r="E86" s="15">
-        <v>6</v>
-      </c>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="13">
+        <v>2</v>
+      </c>
+      <c r="E86" s="13">
+        <v>2</v>
+      </c>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="12" t="s">
         <v>228</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D87" s="15">
         <v>2</v>
       </c>
       <c r="E87" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
@@ -3539,15 +3706,15 @@
         <v>228</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>38</v>
@@ -3564,240 +3731,240 @@
         <v>228</v>
       </c>
       <c r="I88" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A89" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89" s="15">
+        <v>2</v>
+      </c>
+      <c r="E89" s="15">
+        <v>4</v>
+      </c>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="I89" s="18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A90" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D90" s="9">
+        <v>2</v>
+      </c>
+      <c r="E90" s="9">
+        <v>4</v>
+      </c>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="I90" s="17" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A89" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D89" s="9">
-        <v>2</v>
-      </c>
-      <c r="E89" s="9">
-        <v>4</v>
-      </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="I89" s="17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A90" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="15">
-        <v>1</v>
-      </c>
-      <c r="E90" s="15">
-        <v>2</v>
-      </c>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="I90" s="18" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D91" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E91" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
-      <c r="H91" s="20" t="s">
+      <c r="H91" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I91" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A92" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" s="15">
+        <v>3</v>
+      </c>
+      <c r="E92" s="15">
+        <v>5</v>
+      </c>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="I91" s="18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A92" s="8" t="s">
+      <c r="I92" s="18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A93" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B93" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C93" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="9">
-        <v>1</v>
-      </c>
-      <c r="E92" s="9">
-        <v>2</v>
-      </c>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="21" t="s">
+      <c r="D93" s="9">
+        <v>1</v>
+      </c>
+      <c r="E93" s="9">
+        <v>2</v>
+      </c>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="I92" s="17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A93" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D93" s="15">
-        <v>3</v>
-      </c>
-      <c r="E93" s="15">
-        <v>5</v>
-      </c>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="I93" s="18" t="s">
-        <v>284</v>
+      <c r="I93" s="17" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="14" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D94" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E94" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="15"/>
-      <c r="H94" s="15" t="s">
-        <v>255</v>
+      <c r="H94" s="20" t="s">
+        <v>228</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D95" s="15">
         <v>2</v>
       </c>
       <c r="E95" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
       <c r="H95" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I95" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A96" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="15">
+        <v>2</v>
+      </c>
+      <c r="E96" s="15">
+        <v>6</v>
+      </c>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I96" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A97" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="9">
+        <v>2</v>
+      </c>
+      <c r="E97" s="9">
+        <v>2</v>
+      </c>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I97" s="17" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A96" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D96" s="9">
-        <v>2</v>
-      </c>
-      <c r="E96" s="9">
-        <v>2</v>
-      </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I96" s="17" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A97" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D97" s="15">
-        <v>2</v>
-      </c>
-      <c r="E97" s="15">
-        <v>3</v>
-      </c>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="I97" s="18" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>29</v>
@@ -3811,74 +3978,74 @@
       <c r="F98" s="15"/>
       <c r="G98" s="15"/>
       <c r="H98" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I98" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A99" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99" s="15">
+        <v>2</v>
+      </c>
+      <c r="E99" s="15">
+        <v>3</v>
+      </c>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I99" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A100" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" s="9">
+        <v>2</v>
+      </c>
+      <c r="E100" s="9">
+        <v>3</v>
+      </c>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I100" s="17" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A99" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D99" s="9">
-        <v>2</v>
-      </c>
-      <c r="E99" s="9">
-        <v>3</v>
-      </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I99" s="17" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A100" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D100" s="15">
-        <v>1</v>
-      </c>
-      <c r="E100" s="15">
-        <v>2</v>
-      </c>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="I100" s="18" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D101" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101" s="15">
         <v>2</v>
@@ -3886,74 +4053,74 @@
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
       <c r="H101" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I101" s="18" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" s="15">
+        <v>2</v>
+      </c>
+      <c r="E102" s="15">
+        <v>2</v>
+      </c>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I102" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A103" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B103" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C103" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D102" s="9">
-        <v>1</v>
-      </c>
-      <c r="E102" s="9">
-        <v>2</v>
-      </c>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I102" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A103" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D103" s="15">
-        <v>3</v>
-      </c>
-      <c r="E103" s="15">
-        <v>4</v>
-      </c>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="I103" s="18" t="s">
-        <v>267</v>
+      <c r="D103" s="9">
+        <v>1</v>
+      </c>
+      <c r="E103" s="9">
+        <v>2</v>
+      </c>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I103" s="17" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D104" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E104" s="15">
         <v>4</v>
@@ -3961,124 +4128,124 @@
       <c r="F104" s="15"/>
       <c r="G104" s="15"/>
       <c r="H104" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I104" s="18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A105" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C105" s="9" t="s">
+      <c r="A105" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C105" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="9">
-        <v>3</v>
-      </c>
-      <c r="E105" s="9">
+      <c r="D105" s="15">
+        <v>2</v>
+      </c>
+      <c r="E105" s="15">
         <v>4</v>
       </c>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I105" s="17" t="s">
-        <v>266</v>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I105" s="18" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" s="9">
+        <v>3</v>
+      </c>
+      <c r="E106" s="9">
+        <v>4</v>
+      </c>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I106" s="17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A107" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B107" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C107" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D106" s="10">
-        <v>2</v>
-      </c>
-      <c r="E106" s="10">
-        <v>2</v>
-      </c>
-      <c r="F106" s="10">
-        <v>2</v>
-      </c>
-      <c r="G106" s="10">
-        <v>1</v>
-      </c>
-      <c r="H106" s="11" t="s">
+      <c r="D107" s="10">
+        <v>2</v>
+      </c>
+      <c r="E107" s="10">
+        <v>2</v>
+      </c>
+      <c r="F107" s="10">
+        <v>2</v>
+      </c>
+      <c r="G107" s="10">
+        <v>1</v>
+      </c>
+      <c r="H107" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="I106" s="17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A107" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D107" s="15">
-        <v>2</v>
-      </c>
-      <c r="E107" s="15">
-        <v>5</v>
-      </c>
-      <c r="F107" s="15">
-        <v>1</v>
-      </c>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="I107" s="18" t="s">
-        <v>265</v>
+      <c r="I107" s="17" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" s="14" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D108" s="15">
         <v>2</v>
       </c>
       <c r="E108" s="15">
-        <v>4</v>
-      </c>
-      <c r="F108" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="F108" s="15">
+        <v>1</v>
+      </c>
       <c r="G108" s="15"/>
       <c r="H108" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I108" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>38</v>
@@ -4092,147 +4259,145 @@
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
       <c r="H109" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I109" s="18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A110" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D110" s="9">
-        <v>2</v>
-      </c>
-      <c r="E110" s="9">
+      <c r="A110" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D110" s="15">
+        <v>2</v>
+      </c>
+      <c r="E110" s="15">
         <v>4</v>
       </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I110" s="17" t="s">
-        <v>266</v>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I110" s="18" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D111" s="9">
+        <v>2</v>
+      </c>
+      <c r="E111" s="9">
+        <v>4</v>
+      </c>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I111" s="17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A112" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B112" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C112" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D111" s="10">
-        <v>1</v>
-      </c>
-      <c r="E111" s="10">
-        <v>2</v>
-      </c>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="11" t="s">
+      <c r="D112" s="10">
+        <v>1</v>
+      </c>
+      <c r="E112" s="10">
+        <v>2</v>
+      </c>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I112" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="I111" s="17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A112" s="14" t="s">
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A113" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B113" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C113" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D112" s="15">
-        <v>3</v>
-      </c>
-      <c r="E112" s="15">
+      <c r="D113" s="15">
+        <v>3</v>
+      </c>
+      <c r="E113" s="15">
         <v>4</v>
       </c>
-      <c r="F112" s="15">
-        <v>1</v>
-      </c>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="I112" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A113" s="8" t="s">
+      <c r="F113" s="15">
+        <v>1</v>
+      </c>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I113" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A114" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B114" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C114" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D113" s="9">
-        <v>1</v>
-      </c>
-      <c r="E113" s="9">
-        <v>2</v>
-      </c>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I113" s="17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A114" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D114" s="15">
-        <v>3</v>
-      </c>
-      <c r="E114" s="15">
-        <v>4</v>
-      </c>
-      <c r="F114" s="15">
-        <v>1</v>
-      </c>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="I114" s="18" t="s">
-        <v>267</v>
+      <c r="D114" s="9">
+        <v>1</v>
+      </c>
+      <c r="E114" s="9">
+        <v>2</v>
+      </c>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I114" s="17" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>40</v>
@@ -4248,481 +4413,481 @@
       </c>
       <c r="G115" s="15"/>
       <c r="H115" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I115" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A116" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D116" s="15">
+        <v>3</v>
+      </c>
+      <c r="E116" s="15">
+        <v>4</v>
+      </c>
+      <c r="F116" s="15">
+        <v>1</v>
+      </c>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I116" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A117" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D117" s="9">
+        <v>3</v>
+      </c>
+      <c r="E117" s="9">
+        <v>4</v>
+      </c>
+      <c r="F117" s="9">
+        <v>1</v>
+      </c>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I117" s="17" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A116" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D116" s="9">
-        <v>3</v>
-      </c>
-      <c r="E116" s="9">
-        <v>4</v>
-      </c>
-      <c r="F116" s="9">
-        <v>1</v>
-      </c>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I116" s="17" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A117" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D117" s="15">
-        <v>2</v>
-      </c>
-      <c r="E117" s="15">
-        <v>2</v>
-      </c>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="I117" s="18" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D118" s="13">
-        <v>2</v>
-      </c>
-      <c r="E118" s="13">
-        <v>6</v>
-      </c>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" s="15">
+        <v>2</v>
+      </c>
+      <c r="E118" s="15">
+        <v>2</v>
+      </c>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15" t="s">
         <v>227</v>
       </c>
       <c r="I118" s="18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D119" s="15">
-        <v>2</v>
-      </c>
-      <c r="E119" s="15">
-        <v>3</v>
-      </c>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" s="13">
+        <v>2</v>
+      </c>
+      <c r="E119" s="13">
+        <v>6</v>
+      </c>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="12" t="s">
         <v>227</v>
       </c>
       <c r="I119" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D120" s="13">
-        <v>2</v>
-      </c>
-      <c r="E120" s="13">
-        <v>3</v>
-      </c>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="12" t="s">
+      <c r="D120" s="15">
+        <v>2</v>
+      </c>
+      <c r="E120" s="15">
+        <v>3</v>
+      </c>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15" t="s">
         <v>227</v>
       </c>
       <c r="I120" s="18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A121" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C121" s="9" t="s">
+      <c r="A121" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C121" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D121" s="9">
-        <v>2</v>
-      </c>
-      <c r="E121" s="9">
-        <v>5</v>
-      </c>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I121" s="17" t="s">
-        <v>258</v>
+      <c r="D121" s="13">
+        <v>2</v>
+      </c>
+      <c r="E121" s="13">
+        <v>3</v>
+      </c>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I121" s="18" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D122" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I122" s="17" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A123" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D123" s="13">
-        <v>2</v>
-      </c>
-      <c r="E123" s="13">
-        <v>2</v>
-      </c>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="I123" s="18" t="s">
-        <v>252</v>
+      <c r="A123" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D123" s="9">
+        <v>1</v>
+      </c>
+      <c r="E123" s="9">
+        <v>2</v>
+      </c>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I123" s="17" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" s="14" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D124" s="15">
-        <v>1</v>
-      </c>
-      <c r="E124" s="15">
-        <v>2</v>
-      </c>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15" t="s">
-        <v>255</v>
+        <v>30</v>
+      </c>
+      <c r="D124" s="13">
+        <v>2</v>
+      </c>
+      <c r="E124" s="13">
+        <v>2</v>
+      </c>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="I124" s="18" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" s="14" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D125" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E125" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="15"/>
       <c r="H125" s="15" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="I125" s="18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C126" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D126" s="13">
-        <v>3</v>
-      </c>
-      <c r="E126" s="13">
+      <c r="D126" s="15">
+        <v>3</v>
+      </c>
+      <c r="E126" s="15">
         <v>4</v>
       </c>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="12" t="s">
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15" t="s">
         <v>227</v>
       </c>
       <c r="I126" s="18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A127" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C127" s="9" t="s">
+      <c r="A127" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C127" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D127" s="9">
-        <v>3</v>
-      </c>
-      <c r="E127" s="9">
-        <v>6</v>
-      </c>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I127" s="17" t="s">
-        <v>258</v>
+      <c r="D127" s="13">
+        <v>3</v>
+      </c>
+      <c r="E127" s="13">
+        <v>4</v>
+      </c>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I127" s="18" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D128" s="9">
+        <v>3</v>
+      </c>
+      <c r="E128" s="9">
+        <v>6</v>
+      </c>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I128" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A129" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B129" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C129" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D128" s="10">
-        <v>2</v>
-      </c>
-      <c r="E128" s="10">
-        <v>2</v>
-      </c>
-      <c r="F128" s="10">
-        <v>2</v>
-      </c>
-      <c r="G128" s="10">
-        <v>1</v>
-      </c>
-      <c r="H128" s="11" t="s">
+      <c r="D129" s="10">
+        <v>2</v>
+      </c>
+      <c r="E129" s="10">
+        <v>2</v>
+      </c>
+      <c r="F129" s="10">
+        <v>2</v>
+      </c>
+      <c r="G129" s="10">
+        <v>1</v>
+      </c>
+      <c r="H129" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="I128" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A129" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C129" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D129" s="15">
-        <v>2</v>
-      </c>
-      <c r="E129" s="15">
-        <v>5</v>
-      </c>
-      <c r="F129" s="15">
-        <v>1</v>
-      </c>
-      <c r="G129" s="15"/>
-      <c r="H129" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="I129" s="18" t="s">
-        <v>252</v>
+      <c r="I129" s="17" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130" s="14" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="B130" s="15" t="s">
         <v>119</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D130" s="15">
         <v>2</v>
       </c>
       <c r="E130" s="15">
-        <v>4</v>
-      </c>
-      <c r="F130" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="F130" s="15">
+        <v>1</v>
+      </c>
       <c r="G130" s="15"/>
       <c r="H130" s="12" t="s">
         <v>227</v>
       </c>
       <c r="I130" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A131" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C131" s="9" t="s">
+      <c r="A131" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C131" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D131" s="9">
-        <v>2</v>
-      </c>
-      <c r="E131" s="9">
-        <v>6</v>
-      </c>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I131" s="17" t="s">
-        <v>258</v>
+      <c r="D131" s="15">
+        <v>2</v>
+      </c>
+      <c r="E131" s="15">
+        <v>4</v>
+      </c>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I131" s="18" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132" s="9">
+        <v>2</v>
+      </c>
+      <c r="E132" s="9">
+        <v>6</v>
+      </c>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I132" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A133" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B133" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C133" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D132" s="10">
-        <v>1</v>
-      </c>
-      <c r="E132" s="10">
-        <v>2</v>
-      </c>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="11" t="s">
+      <c r="D133" s="10">
+        <v>1</v>
+      </c>
+      <c r="E133" s="10">
+        <v>2</v>
+      </c>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="I133" s="17" t="s">
         <v>248</v>
-      </c>
-      <c r="I132" s="17" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A133" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D133" s="15">
-        <v>3</v>
-      </c>
-      <c r="E133" s="15">
-        <v>4</v>
-      </c>
-      <c r="F133" s="15">
-        <v>1</v>
-      </c>
-      <c r="G133" s="15"/>
-      <c r="H133" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="I133" s="18" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B134" s="15" t="s">
         <v>119</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D134" s="15">
         <v>3</v>
@@ -4738,95 +4903,97 @@
         <v>227</v>
       </c>
       <c r="I134" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A135" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C135" s="9" t="s">
+      <c r="A135" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C135" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D135" s="9">
-        <v>3</v>
-      </c>
-      <c r="E135" s="9">
-        <v>7</v>
-      </c>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I135" s="17" t="s">
-        <v>258</v>
+      <c r="D135" s="15">
+        <v>3</v>
+      </c>
+      <c r="E135" s="15">
+        <v>4</v>
+      </c>
+      <c r="F135" s="15">
+        <v>1</v>
+      </c>
+      <c r="G135" s="15"/>
+      <c r="H135" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I135" s="18" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136" s="8" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="D136" s="9">
+        <v>3</v>
+      </c>
+      <c r="E136" s="9">
+        <v>7</v>
+      </c>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I136" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A137" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="I136" s="17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A137" s="14" t="s">
+      <c r="I137" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A138" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="B137" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D137" s="15">
-        <v>2</v>
-      </c>
-      <c r="E137" s="15">
-        <v>6</v>
-      </c>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="I137" s="18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A138" s="14" t="s">
-        <v>207</v>
       </c>
       <c r="B138" s="15" t="s">
         <v>137</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D138" s="15">
         <v>2</v>
       </c>
       <c r="E138" s="15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="15"/>
@@ -4834,71 +5001,71 @@
         <v>225</v>
       </c>
       <c r="I138" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D139" s="15">
+        <v>2</v>
+      </c>
+      <c r="E139" s="15">
+        <v>3</v>
+      </c>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I139" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A140" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B140" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C140" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D139" s="9">
-        <v>2</v>
-      </c>
-      <c r="E139" s="9">
+      <c r="D140" s="9">
+        <v>2</v>
+      </c>
+      <c r="E140" s="9">
         <v>5</v>
       </c>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I139" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A140" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B140" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C140" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D140" s="15">
-        <v>1</v>
-      </c>
-      <c r="E140" s="15">
-        <v>2</v>
-      </c>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="I140" s="18" t="s">
-        <v>261</v>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I140" s="17" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A141" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D141" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141" s="15">
         <v>2</v>
@@ -4906,275 +5073,273 @@
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
       <c r="H141" s="15" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="I141" s="18" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A142" s="14" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D142" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E142" s="15">
         <v>2</v>
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="15"/>
-      <c r="H142" s="20" t="s">
+      <c r="H142" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I142" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A143" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" s="15">
+        <v>1</v>
+      </c>
+      <c r="E143" s="15">
+        <v>2</v>
+      </c>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="I142" s="18" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A143" s="8" t="s">
+      <c r="I143" s="18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A144" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B144" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="C144" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9" t="s">
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="I143" s="17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A144" s="14" t="s">
+      <c r="I144" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A145" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B144" s="15" t="s">
+      <c r="B145" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C144" s="15" t="s">
+      <c r="C145" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D144" s="15">
-        <v>3</v>
-      </c>
-      <c r="E144" s="15">
+      <c r="D145" s="15">
+        <v>3</v>
+      </c>
+      <c r="E145" s="15">
         <v>4</v>
       </c>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15" t="s">
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="I144" s="18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A145" s="8" t="s">
+      <c r="I145" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A146" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B146" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="C146" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D145" s="9">
-        <v>3</v>
-      </c>
-      <c r="E145" s="9">
+      <c r="D146" s="9">
+        <v>3</v>
+      </c>
+      <c r="E146" s="9">
         <v>6</v>
       </c>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I145" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A146" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B146" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C146" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D146" s="13">
-        <v>2</v>
-      </c>
-      <c r="E146" s="13">
-        <v>2</v>
-      </c>
-      <c r="F146" s="13">
-        <v>2</v>
-      </c>
-      <c r="G146" s="13">
-        <v>1</v>
-      </c>
-      <c r="H146" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="I146" s="18" t="s">
-        <v>240</v>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I146" s="17" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A147" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D147" s="15">
-        <v>2</v>
-      </c>
-      <c r="E147" s="15">
-        <v>5</v>
-      </c>
-      <c r="F147" s="15">
-        <v>1</v>
-      </c>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15" t="s">
-        <v>225</v>
+        <v>34</v>
+      </c>
+      <c r="D147" s="13">
+        <v>2</v>
+      </c>
+      <c r="E147" s="13">
+        <v>2</v>
+      </c>
+      <c r="F147" s="13">
+        <v>2</v>
+      </c>
+      <c r="G147" s="13">
+        <v>1</v>
+      </c>
+      <c r="H147" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="I147" s="18" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A148" s="14" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="B148" s="15" t="s">
         <v>137</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D148" s="15">
         <v>2</v>
       </c>
       <c r="E148" s="15">
-        <v>4</v>
-      </c>
-      <c r="F148" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="F148" s="15">
+        <v>1</v>
+      </c>
       <c r="G148" s="15"/>
       <c r="H148" s="15" t="s">
         <v>225</v>
       </c>
       <c r="I148" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D149" s="15">
+        <v>2</v>
+      </c>
+      <c r="E149" s="15">
+        <v>4</v>
+      </c>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I149" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A150" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B150" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C150" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D149" s="9">
-        <v>2</v>
-      </c>
-      <c r="E149" s="9">
+      <c r="D150" s="9">
+        <v>2</v>
+      </c>
+      <c r="E150" s="9">
         <v>6</v>
       </c>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I149" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A150" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="B150" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D150" s="15">
-        <v>1</v>
-      </c>
-      <c r="E150" s="15">
-        <v>2</v>
-      </c>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="I150" s="18" t="s">
-        <v>282</v>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I150" s="17" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="151" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A151" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D151" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E151" s="15">
-        <v>4</v>
-      </c>
-      <c r="F151" s="15">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F151" s="15"/>
       <c r="G151" s="15"/>
-      <c r="H151" s="15" t="s">
-        <v>225</v>
+      <c r="H151" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="I151" s="18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A152" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B152" s="15" t="s">
         <v>137</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D152" s="15">
         <v>3</v>
@@ -5190,40 +5355,294 @@
         <v>225</v>
       </c>
       <c r="I152" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D153" s="15">
+        <v>3</v>
+      </c>
+      <c r="E153" s="15">
+        <v>4</v>
+      </c>
+      <c r="F153" s="15">
+        <v>1</v>
+      </c>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I153" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A154" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B154" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C154" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D153" s="9">
-        <v>3</v>
-      </c>
-      <c r="E153" s="9">
+      <c r="D154" s="9">
+        <v>3</v>
+      </c>
+      <c r="E154" s="9">
         <v>7</v>
       </c>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I153" s="17" t="s">
-        <v>259</v>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I154" s="17" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I153">
-    <sortCondition ref="A4:A153"/>
-    <sortCondition ref="B4:B153"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I154">
+    <sortCondition ref="A5:A154"/>
+    <sortCondition ref="B5:B154"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E86595-4739-429A-8A61-241B869484CE}">
+  <dimension ref="A2:B43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24" style="2" customWidth="1"/>
+    <col min="2" max="2" width="121.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="2" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625" style="2"/>
+    <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B29" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B43" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/6502_OpcodeMatrix.xlsx
+++ b/6502_OpcodeMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Sultan\Abacus\dev\scripts\k6502\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205B7859-594E-4F4B-A924-F7AA7CFC403C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF4D832-6B90-40F7-95D0-89CACD87F57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{A5E2A2B9-77CB-469B-8A6A-2146D12C11D1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A5E2A2B9-77CB-469B-8A6A-2146D12C11D1}"/>
   </bookViews>
   <sheets>
     <sheet name="6502_OpcodeMatrix" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="323">
   <si>
     <t>6502 OPCODE MATRIX</t>
   </si>
@@ -713,9 +713,6 @@
   </si>
   <si>
     <t>NZC--V</t>
-  </si>
-  <si>
-    <t>NC----</t>
   </si>
   <si>
     <t>NZC---</t>
@@ -1541,9 +1538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C88A6A-9F9D-46EF-8A5C-27EE186E6906}">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1567,7 +1562,7 @@
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I2" s="16"/>
     </row>
@@ -1579,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
@@ -1588,16 +1583,16 @@
         <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -1619,10 +1614,10 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -1644,10 +1639,10 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -1669,10 +1664,10 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -1694,10 +1689,10 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -1719,10 +1714,10 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -1744,10 +1739,10 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -1769,10 +1764,10 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -1794,10 +1789,10 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -1819,10 +1814,10 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -1848,10 +1843,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -1875,10 +1870,10 @@
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
@@ -1900,10 +1895,10 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -1925,10 +1920,10 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
@@ -1950,10 +1945,10 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
@@ -1977,10 +1972,10 @@
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -2004,10 +1999,10 @@
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -2029,10 +2024,10 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
@@ -2054,10 +2049,10 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
@@ -2079,10 +2074,10 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="12" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
@@ -2104,10 +2099,10 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
@@ -2129,10 +2124,10 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="12" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
@@ -2154,10 +2149,10 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -2179,10 +2174,10 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
@@ -2204,10 +2199,10 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="12" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
@@ -2229,10 +2224,10 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
@@ -2254,10 +2249,10 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
@@ -2279,10 +2274,10 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="12" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -2304,10 +2299,10 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
@@ -2333,10 +2328,10 @@
         <v>1</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
@@ -2360,10 +2355,10 @@
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="12" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
@@ -2385,10 +2380,10 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="12" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
@@ -2410,10 +2405,10 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
@@ -2435,10 +2430,10 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
@@ -2462,10 +2457,10 @@
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="12" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
@@ -2489,10 +2484,10 @@
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="12" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
@@ -2514,10 +2509,10 @@
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
@@ -2539,10 +2534,10 @@
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="I41" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
@@ -2564,10 +2559,10 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
@@ -2589,10 +2584,10 @@
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
@@ -2614,10 +2609,10 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
@@ -2639,10 +2634,10 @@
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
       <c r="H45" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
@@ -2664,10 +2659,10 @@
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
@@ -2689,10 +2684,10 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
@@ -2714,10 +2709,10 @@
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
       <c r="H48" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
@@ -2739,10 +2734,10 @@
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
@@ -2764,10 +2759,10 @@
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
@@ -2793,10 +2788,10 @@
         <v>1</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
@@ -2820,10 +2815,10 @@
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
@@ -2845,10 +2840,10 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
@@ -2870,10 +2865,10 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
@@ -2895,10 +2890,10 @@
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
       <c r="H55" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
@@ -2922,10 +2917,10 @@
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
@@ -2949,10 +2944,10 @@
       </c>
       <c r="G57" s="15"/>
       <c r="H57" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
@@ -2974,10 +2969,10 @@
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
@@ -2999,10 +2994,10 @@
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
@@ -3027,7 +3022,7 @@
         <v>225</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
@@ -3052,7 +3047,7 @@
         <v>225</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
@@ -3074,10 +3069,10 @@
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
@@ -3099,10 +3094,10 @@
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
@@ -3127,7 +3122,7 @@
         <v>225</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
@@ -3149,10 +3144,10 @@
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
@@ -3174,10 +3169,10 @@
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
       <c r="H66" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
@@ -3202,7 +3197,7 @@
         <v>225</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
@@ -3224,10 +3219,10 @@
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
@@ -3253,10 +3248,10 @@
         <v>1</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
@@ -3281,7 +3276,7 @@
         <v>225</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
@@ -3306,7 +3301,7 @@
         <v>225</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
@@ -3328,10 +3323,10 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
@@ -3353,10 +3348,10 @@
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
@@ -3381,7 +3376,7 @@
         <v>225</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
@@ -3406,7 +3401,7 @@
         <v>225</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
@@ -3428,10 +3423,10 @@
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
@@ -3453,10 +3448,10 @@
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
       <c r="H77" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
@@ -3478,10 +3473,10 @@
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
       <c r="H78" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
@@ -3503,10 +3498,10 @@
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
       <c r="H79" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
@@ -3528,10 +3523,10 @@
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
@@ -3553,10 +3548,10 @@
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
@@ -3578,10 +3573,10 @@
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
       <c r="H82" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
@@ -3603,10 +3598,10 @@
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
       <c r="H83" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
@@ -3628,10 +3623,10 @@
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
       <c r="H84" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
@@ -3653,10 +3648,10 @@
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
       <c r="H85" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
@@ -3678,10 +3673,10 @@
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
       <c r="H86" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
@@ -3703,10 +3698,10 @@
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
       <c r="H87" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
@@ -3728,10 +3723,10 @@
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
       <c r="H88" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
@@ -3753,10 +3748,10 @@
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
       <c r="H89" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.45">
@@ -3778,10 +3773,10 @@
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
       <c r="H90" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I90" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
@@ -3803,10 +3798,10 @@
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
       <c r="H91" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
@@ -3828,10 +3823,10 @@
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
       <c r="H92" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
@@ -3853,10 +3848,10 @@
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
       <c r="H93" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I93" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
@@ -3878,10 +3873,10 @@
       <c r="F94" s="15"/>
       <c r="G94" s="15"/>
       <c r="H94" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.45">
@@ -3903,10 +3898,10 @@
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
       <c r="H95" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.45">
@@ -3928,10 +3923,10 @@
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
       <c r="H96" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I96" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
@@ -3953,10 +3948,10 @@
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I97" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
@@ -3978,10 +3973,10 @@
       <c r="F98" s="15"/>
       <c r="G98" s="15"/>
       <c r="H98" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I98" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
@@ -4003,10 +3998,10 @@
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
       <c r="H99" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I99" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
@@ -4028,10 +4023,10 @@
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I100" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.45">
@@ -4053,10 +4048,10 @@
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
       <c r="H101" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I101" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
@@ -4078,10 +4073,10 @@
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
       <c r="H102" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I102" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
@@ -4103,10 +4098,10 @@
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I103" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
@@ -4128,10 +4123,10 @@
       <c r="F104" s="15"/>
       <c r="G104" s="15"/>
       <c r="H104" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I104" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
@@ -4153,10 +4148,10 @@
       <c r="F105" s="15"/>
       <c r="G105" s="15"/>
       <c r="H105" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I105" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
@@ -4178,10 +4173,10 @@
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I106" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.45">
@@ -4207,10 +4202,10 @@
         <v>1</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I107" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
@@ -4234,10 +4229,10 @@
       </c>
       <c r="G108" s="15"/>
       <c r="H108" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I108" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
@@ -4259,10 +4254,10 @@
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
       <c r="H109" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I109" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
@@ -4284,10 +4279,10 @@
       <c r="F110" s="15"/>
       <c r="G110" s="15"/>
       <c r="H110" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I110" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
@@ -4309,10 +4304,10 @@
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I111" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.45">
@@ -4334,10 +4329,10 @@
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
       <c r="H112" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="I112" s="17" t="s">
         <v>249</v>
-      </c>
-      <c r="I112" s="17" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.45">
@@ -4361,10 +4356,10 @@
       </c>
       <c r="G113" s="15"/>
       <c r="H113" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I113" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.45">
@@ -4386,10 +4381,10 @@
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I114" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.45">
@@ -4413,10 +4408,10 @@
       </c>
       <c r="G115" s="15"/>
       <c r="H115" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I115" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.45">
@@ -4440,10 +4435,10 @@
       </c>
       <c r="G116" s="15"/>
       <c r="H116" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I116" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.45">
@@ -4467,10 +4462,10 @@
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I117" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.45">
@@ -4492,10 +4487,10 @@
       <c r="F118" s="15"/>
       <c r="G118" s="15"/>
       <c r="H118" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I118" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.45">
@@ -4517,10 +4512,10 @@
       <c r="F119" s="13"/>
       <c r="G119" s="13"/>
       <c r="H119" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I119" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.45">
@@ -4542,10 +4537,10 @@
       <c r="F120" s="15"/>
       <c r="G120" s="15"/>
       <c r="H120" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I120" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.45">
@@ -4567,10 +4562,10 @@
       <c r="F121" s="13"/>
       <c r="G121" s="13"/>
       <c r="H121" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I121" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.45">
@@ -4592,10 +4587,10 @@
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I122" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.45">
@@ -4617,10 +4612,10 @@
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I123" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.45">
@@ -4642,10 +4637,10 @@
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
       <c r="H124" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I124" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.45">
@@ -4667,10 +4662,10 @@
       <c r="F125" s="15"/>
       <c r="G125" s="15"/>
       <c r="H125" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="I125" s="18" t="s">
         <v>254</v>
-      </c>
-      <c r="I125" s="18" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.45">
@@ -4692,10 +4687,10 @@
       <c r="F126" s="15"/>
       <c r="G126" s="15"/>
       <c r="H126" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I126" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.45">
@@ -4717,10 +4712,10 @@
       <c r="F127" s="13"/>
       <c r="G127" s="13"/>
       <c r="H127" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I127" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.45">
@@ -4742,10 +4737,10 @@
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I128" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.45">
@@ -4771,10 +4766,10 @@
         <v>1</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I129" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.45">
@@ -4798,10 +4793,10 @@
       </c>
       <c r="G130" s="15"/>
       <c r="H130" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I130" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.45">
@@ -4823,10 +4818,10 @@
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
       <c r="H131" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I131" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.45">
@@ -4848,10 +4843,10 @@
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I132" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.45">
@@ -4873,10 +4868,10 @@
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>
       <c r="H133" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="I133" s="17" t="s">
         <v>247</v>
-      </c>
-      <c r="I133" s="17" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.45">
@@ -4900,10 +4895,10 @@
       </c>
       <c r="G134" s="15"/>
       <c r="H134" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I134" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.45">
@@ -4927,10 +4922,10 @@
       </c>
       <c r="G135" s="15"/>
       <c r="H135" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I135" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.45">
@@ -4952,10 +4947,10 @@
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I136" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.45">
@@ -4973,10 +4968,10 @@
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I137" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.45">
@@ -5001,7 +4996,7 @@
         <v>225</v>
       </c>
       <c r="I138" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -5026,7 +5021,7 @@
         <v>225</v>
       </c>
       <c r="I139" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -5048,10 +5043,10 @@
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I140" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -5073,10 +5068,10 @@
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
       <c r="H141" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I141" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -5101,7 +5096,7 @@
         <v>225</v>
       </c>
       <c r="I142" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -5123,10 +5118,10 @@
       <c r="F143" s="15"/>
       <c r="G143" s="15"/>
       <c r="H143" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I143" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -5144,10 +5139,10 @@
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I144" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -5172,7 +5167,7 @@
         <v>225</v>
       </c>
       <c r="I145" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -5194,10 +5189,10 @@
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
       <c r="H146" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I146" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -5223,10 +5218,10 @@
         <v>1</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I147" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -5253,7 +5248,7 @@
         <v>225</v>
       </c>
       <c r="I148" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -5278,7 +5273,7 @@
         <v>225</v>
       </c>
       <c r="I149" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -5300,10 +5295,10 @@
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I150" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="151" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -5325,10 +5320,10 @@
       <c r="F151" s="15"/>
       <c r="G151" s="15"/>
       <c r="H151" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I151" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -5355,7 +5350,7 @@
         <v>225</v>
       </c>
       <c r="I152" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -5382,7 +5377,7 @@
         <v>225</v>
       </c>
       <c r="I153" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -5404,10 +5399,10 @@
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I154" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -5424,7 +5419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E86595-4739-429A-8A61-241B869484CE}">
   <dimension ref="A2:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -5440,10 +5435,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>296</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -5451,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -5459,15 +5454,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -5475,7 +5470,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -5483,23 +5478,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -5507,23 +5502,23 @@
         <v>5</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>308</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -5531,7 +5526,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -5539,7 +5534,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -5547,7 +5542,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -5555,7 +5550,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -5563,7 +5558,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -5571,7 +5566,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -5579,7 +5574,7 @@
         <v>174</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -5587,7 +5582,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -5595,7 +5590,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -5603,7 +5598,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -5611,7 +5606,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -5619,7 +5614,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -5627,17 +5622,17 @@
         <v>219</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B43" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
